--- a/PartList Mouse 2020.xlsx
+++ b/PartList Mouse 2020.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B18692-D2E3-40F7-992C-9BD4BABEE7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Order number</t>
   </si>
@@ -209,14 +218,7 @@
     <t>https://de.rs-online.com/web/p/dil-sockel/6742432/</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>Transistors</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>:</t>
-    </r>
+    <t>Transistors:</t>
   </si>
   <si>
     <t>509-273</t>
@@ -238,15 +240,6 @@
   </si>
   <si>
     <t>3.3V LD falsch?</t>
-  </si>
-  <si>
-    <t>714-0697</t>
-  </si>
-  <si>
-    <t>https://de.rs-online.com/web/p/ldo-spannungsregler/7140697/</t>
-  </si>
-  <si>
-    <t>achtung</t>
   </si>
   <si>
     <t>Other:</t>
@@ -296,66 +289,85 @@
   </si>
   <si>
     <t>Battery Connector</t>
+  </si>
+  <si>
+    <t>197-7281</t>
+  </si>
+  <si>
+    <t>https://de.rs-online.com/web/p/ldo-spannungsregler/1977281/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF7E3794"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +375,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,7 +391,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -393,100 +411,73 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -676,28 +667,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N980"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.86"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="27.57"/>
-    <col customWidth="1" min="4" max="4" width="6.29"/>
-    <col customWidth="1" min="5" max="5" width="6.57"/>
-    <col customWidth="1" min="6" max="6" width="8.43"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -723,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -741,7 +737,7 @@
       <c r="K2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -755,7 +751,7 @@
       <c r="K3" s="5"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -767,7 +763,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="12"/>
@@ -775,7 +771,7 @@
       <c r="K4" s="5"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -789,7 +785,7 @@
       <c r="K5" s="5"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -805,7 +801,7 @@
       <c r="K6" s="5"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -816,24 +812,24 @@
         <v>13</v>
       </c>
       <c r="D7" s="16">
-        <v>0.069</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E7" s="16">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="16"/>
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
       <c r="M7" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="14" t="s">
         <v>14</v>
@@ -842,24 +838,24 @@
         <v>15</v>
       </c>
       <c r="D8" s="16">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E8" s="16">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="13"/>
       <c r="K8" s="16"/>
       <c r="M8" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -873,7 +869,7 @@
       <c r="K9" s="5"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -889,7 +885,7 @@
       <c r="K10" s="5"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -900,24 +896,24 @@
         <v>19</v>
       </c>
       <c r="D11" s="16">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E11" s="16">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="17">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
       <c r="J11" s="13"/>
       <c r="K11" s="16"/>
       <c r="M11" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -928,24 +924,24 @@
         <v>22</v>
       </c>
       <c r="D12" s="16">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E12" s="16">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="16"/>
       <c r="J12" s="13"/>
       <c r="K12" s="16"/>
       <c r="M12" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>23</v>
       </c>
@@ -959,21 +955,21 @@
         <v>0.184</v>
       </c>
       <c r="E13" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="16"/>
       <c r="J13" s="13"/>
       <c r="K13" s="16"/>
       <c r="M13" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -984,24 +980,24 @@
         <v>28</v>
       </c>
       <c r="D14" s="16">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E14" s="16">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="13"/>
       <c r="K14" s="16"/>
       <c r="M14" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1015,21 +1011,21 @@
         <v>0.27</v>
       </c>
       <c r="E15" s="16">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="13"/>
       <c r="K15" s="16"/>
       <c r="M15" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1040,24 +1036,24 @@
         <v>34</v>
       </c>
       <c r="D16" s="16">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E16" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="16"/>
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
       <c r="M16" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
@@ -1071,7 +1067,7 @@
       <c r="K17" s="5"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1085,7 +1081,7 @@
       <c r="K18" s="5"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -1101,7 +1097,7 @@
       <c r="K19" s="5"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1115,21 +1111,21 @@
         <v>0.03</v>
       </c>
       <c r="E20" s="16">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="13"/>
       <c r="K20" s="16"/>
       <c r="M20" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -1143,21 +1139,21 @@
         <v>0.112</v>
       </c>
       <c r="E21" s="16">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="13"/>
       <c r="K21" s="16"/>
       <c r="M21" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1168,24 +1164,24 @@
         <v>44</v>
       </c>
       <c r="D22" s="16">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E22" s="16">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="16"/>
       <c r="J22" s="13"/>
       <c r="K22" s="16"/>
       <c r="M22" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1196,27 +1192,27 @@
         <v>47</v>
       </c>
       <c r="D23" s="16">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E23" s="16">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="16"/>
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
       <c r="M23" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1230,7 +1226,7 @@
       <c r="K24" s="5"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1244,7 +1240,7 @@
       <c r="K25" s="5"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -1260,7 +1256,7 @@
       <c r="K26" s="5"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="14" t="s">
         <v>50</v>
@@ -1269,24 +1265,24 @@
         <v>51</v>
       </c>
       <c r="D27" s="16">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E27" s="16">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="16"/>
       <c r="J27" s="13"/>
       <c r="K27" s="16"/>
       <c r="M27" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1300,7 +1296,7 @@
       <c r="K28" s="5"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1316,7 +1312,7 @@
       <c r="K29" s="5"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="14"/>
       <c r="C30" s="5"/>
@@ -1330,7 +1326,7 @@
       <c r="K30" s="5"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -1341,14 +1337,14 @@
         <v>55</v>
       </c>
       <c r="D31" s="16">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E31" s="16">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="16"/>
@@ -1356,7 +1352,7 @@
       <c r="K31" s="16"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -1367,14 +1363,14 @@
         <v>58</v>
       </c>
       <c r="D32" s="16">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E32" s="16">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="16"/>
@@ -1382,7 +1378,7 @@
       <c r="K32" s="16"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -1396,11 +1392,11 @@
         <v>1.61</v>
       </c>
       <c r="E33" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="16"/>
@@ -1408,7 +1404,7 @@
       <c r="K33" s="16"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -1419,14 +1415,14 @@
         <v>64</v>
       </c>
       <c r="D34" s="16">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E34" s="16">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="16"/>
@@ -1434,7 +1430,7 @@
       <c r="K34" s="16"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1448,7 +1444,7 @@
       <c r="K35" s="5"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>65</v>
       </c>
@@ -1464,7 +1460,7 @@
       <c r="K36" s="5"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="14" t="s">
         <v>66</v>
@@ -1476,21 +1472,21 @@
         <v>0.254</v>
       </c>
       <c r="E37" s="16">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="16"/>
       <c r="J37" s="13"/>
       <c r="K37" s="16"/>
       <c r="M37" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1504,7 +1500,7 @@
       <c r="K38" s="5"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>68</v>
       </c>
@@ -1520,7 +1516,7 @@
       <c r="K39" s="5"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
@@ -1534,52 +1530,50 @@
         <v>1.47</v>
       </c>
       <c r="E40" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="16"/>
       <c r="J40" s="13"/>
       <c r="K40" s="16"/>
       <c r="M40" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>73</v>
+      <c r="B41" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D41" s="16">
-        <v>0.301</v>
+        <v>1.38</v>
       </c>
       <c r="E41" s="16">
-        <v>10.0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="16"/>
       <c r="J41" s="13"/>
       <c r="K41" s="16"/>
       <c r="M41" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1592,7 +1586,7 @@
       <c r="K42" s="5"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1606,9 +1600,9 @@
       <c r="K43" s="5"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1622,93 +1616,93 @@
       <c r="K44" s="5"/>
       <c r="M44" s="9"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" s="16">
         <v>3.3</v>
       </c>
       <c r="E45" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="16"/>
       <c r="J45" s="13"/>
       <c r="K45" s="16"/>
       <c r="M45" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" s="16">
         <v>7.16</v>
       </c>
       <c r="E46" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="16"/>
       <c r="J46" s="13"/>
       <c r="K46" s="16"/>
       <c r="M46" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D47" s="16">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E47" s="16">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="16"/>
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
       <c r="M47" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1716,19 +1710,19 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="16"/>
       <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="M48" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1736,47 +1730,47 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="16"/>
       <c r="J49" s="13"/>
       <c r="K49" s="5"/>
       <c r="M49" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" s="16">
         <v>5.95</v>
       </c>
       <c r="E50" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="16"/>
       <c r="J50" s="13"/>
       <c r="K50" s="16"/>
       <c r="M50" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1784,3759 +1778,3759 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="16"/>
       <c r="J51" s="13"/>
       <c r="K51" s="5"/>
       <c r="M51" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G52" s="25"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G53" s="25"/>
       <c r="M53" s="9"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G54" s="25"/>
       <c r="M54" s="9"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G55" s="25"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G56" s="25"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G57" s="25"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G58" s="25"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G59" s="25"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G60" s="25"/>
       <c r="M60" s="9"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G61" s="25"/>
       <c r="M61" s="9"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G62" s="25"/>
       <c r="M62" s="9"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G63" s="25"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G64" s="25"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G65" s="25"/>
       <c r="M65" s="9"/>
     </row>
-    <row r="66">
+    <row r="66" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G66" s="25"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67">
+    <row r="67" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G67" s="25"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68">
+    <row r="68" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G68" s="25"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G69" s="25"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70">
+    <row r="70" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G70" s="25"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71">
+    <row r="71" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G71" s="25"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72">
+    <row r="72" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G72" s="25"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73">
+    <row r="73" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G73" s="25"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74">
+    <row r="74" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G74" s="25"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75">
+    <row r="75" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G75" s="25"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76">
+    <row r="76" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G76" s="25"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77">
+    <row r="77" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G77" s="25"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78">
+    <row r="78" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G78" s="25"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79">
+    <row r="79" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G79" s="25"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80">
+    <row r="80" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G80" s="25"/>
       <c r="M80" s="9"/>
     </row>
-    <row r="81">
+    <row r="81" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G81" s="25"/>
       <c r="M81" s="9"/>
     </row>
-    <row r="82">
+    <row r="82" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G82" s="25"/>
       <c r="M82" s="9"/>
     </row>
-    <row r="83">
+    <row r="83" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G83" s="25"/>
       <c r="M83" s="9"/>
     </row>
-    <row r="84">
+    <row r="84" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G84" s="25"/>
       <c r="M84" s="9"/>
     </row>
-    <row r="85">
+    <row r="85" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G85" s="25"/>
       <c r="M85" s="9"/>
     </row>
-    <row r="86">
+    <row r="86" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G86" s="25"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87">
+    <row r="87" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G87" s="25"/>
       <c r="M87" s="9"/>
     </row>
-    <row r="88">
+    <row r="88" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G88" s="25"/>
       <c r="M88" s="9"/>
     </row>
-    <row r="89">
+    <row r="89" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G89" s="25"/>
       <c r="M89" s="9"/>
     </row>
-    <row r="90">
+    <row r="90" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G90" s="25"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="91">
+    <row r="91" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G91" s="25"/>
       <c r="M91" s="9"/>
     </row>
-    <row r="92">
+    <row r="92" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G92" s="25"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93">
+    <row r="93" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G93" s="25"/>
       <c r="M93" s="9"/>
     </row>
-    <row r="94">
+    <row r="94" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G94" s="25"/>
       <c r="M94" s="9"/>
     </row>
-    <row r="95">
+    <row r="95" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G95" s="25"/>
       <c r="M95" s="9"/>
     </row>
-    <row r="96">
+    <row r="96" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G96" s="25"/>
       <c r="M96" s="9"/>
     </row>
-    <row r="97">
+    <row r="97" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G97" s="25"/>
       <c r="M97" s="9"/>
     </row>
-    <row r="98">
+    <row r="98" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G98" s="25"/>
       <c r="M98" s="9"/>
     </row>
-    <row r="99">
+    <row r="99" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G99" s="25"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G100" s="25"/>
       <c r="M100" s="9"/>
     </row>
-    <row r="101">
+    <row r="101" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G101" s="25"/>
       <c r="M101" s="9"/>
     </row>
-    <row r="102">
+    <row r="102" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G102" s="25"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="103">
+    <row r="103" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G103" s="25"/>
       <c r="M103" s="9"/>
     </row>
-    <row r="104">
+    <row r="104" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G104" s="25"/>
       <c r="M104" s="9"/>
     </row>
-    <row r="105">
+    <row r="105" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G105" s="25"/>
       <c r="M105" s="9"/>
     </row>
-    <row r="106">
+    <row r="106" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G106" s="25"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107">
+    <row r="107" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G107" s="25"/>
       <c r="M107" s="9"/>
     </row>
-    <row r="108">
+    <row r="108" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G108" s="25"/>
       <c r="M108" s="9"/>
     </row>
-    <row r="109">
+    <row r="109" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G109" s="25"/>
       <c r="M109" s="9"/>
     </row>
-    <row r="110">
+    <row r="110" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G110" s="25"/>
       <c r="M110" s="9"/>
     </row>
-    <row r="111">
+    <row r="111" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G111" s="25"/>
       <c r="M111" s="9"/>
     </row>
-    <row r="112">
+    <row r="112" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G112" s="25"/>
       <c r="M112" s="9"/>
     </row>
-    <row r="113">
+    <row r="113" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G113" s="25"/>
       <c r="M113" s="9"/>
     </row>
-    <row r="114">
+    <row r="114" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G114" s="25"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115">
+    <row r="115" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G115" s="25"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116">
+    <row r="116" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G116" s="25"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117">
+    <row r="117" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G117" s="25"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118">
+    <row r="118" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G118" s="25"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119">
+    <row r="119" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G119" s="25"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120">
+    <row r="120" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G120" s="25"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121">
+    <row r="121" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G121" s="25"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122">
+    <row r="122" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G122" s="25"/>
       <c r="M122" s="9"/>
     </row>
-    <row r="123">
+    <row r="123" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G123" s="25"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124">
+    <row r="124" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G124" s="25"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125">
+    <row r="125" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G125" s="25"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126">
+    <row r="126" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G126" s="25"/>
       <c r="M126" s="9"/>
     </row>
-    <row r="127">
+    <row r="127" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G127" s="25"/>
       <c r="M127" s="9"/>
     </row>
-    <row r="128">
+    <row r="128" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G128" s="25"/>
       <c r="M128" s="9"/>
     </row>
-    <row r="129">
+    <row r="129" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G129" s="25"/>
       <c r="M129" s="9"/>
     </row>
-    <row r="130">
+    <row r="130" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G130" s="25"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131">
+    <row r="131" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G131" s="25"/>
       <c r="M131" s="9"/>
     </row>
-    <row r="132">
+    <row r="132" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G132" s="25"/>
       <c r="M132" s="9"/>
     </row>
-    <row r="133">
+    <row r="133" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G133" s="25"/>
       <c r="M133" s="9"/>
     </row>
-    <row r="134">
+    <row r="134" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G134" s="25"/>
       <c r="M134" s="9"/>
     </row>
-    <row r="135">
+    <row r="135" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G135" s="25"/>
       <c r="M135" s="9"/>
     </row>
-    <row r="136">
+    <row r="136" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G136" s="25"/>
       <c r="M136" s="9"/>
     </row>
-    <row r="137">
+    <row r="137" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G137" s="25"/>
       <c r="M137" s="9"/>
     </row>
-    <row r="138">
+    <row r="138" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G138" s="25"/>
       <c r="M138" s="9"/>
     </row>
-    <row r="139">
+    <row r="139" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G139" s="25"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140">
+    <row r="140" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G140" s="25"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141">
+    <row r="141" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G141" s="25"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142">
+    <row r="142" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G142" s="25"/>
       <c r="M142" s="9"/>
     </row>
-    <row r="143">
+    <row r="143" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G143" s="25"/>
       <c r="M143" s="9"/>
     </row>
-    <row r="144">
+    <row r="144" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G144" s="25"/>
       <c r="M144" s="9"/>
     </row>
-    <row r="145">
+    <row r="145" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G145" s="25"/>
       <c r="M145" s="9"/>
     </row>
-    <row r="146">
+    <row r="146" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G146" s="25"/>
       <c r="M146" s="9"/>
     </row>
-    <row r="147">
+    <row r="147" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G147" s="25"/>
       <c r="M147" s="9"/>
     </row>
-    <row r="148">
+    <row r="148" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G148" s="25"/>
       <c r="M148" s="9"/>
     </row>
-    <row r="149">
+    <row r="149" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G149" s="25"/>
       <c r="M149" s="9"/>
     </row>
-    <row r="150">
+    <row r="150" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G150" s="25"/>
       <c r="M150" s="9"/>
     </row>
-    <row r="151">
+    <row r="151" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G151" s="25"/>
       <c r="M151" s="9"/>
     </row>
-    <row r="152">
+    <row r="152" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G152" s="25"/>
       <c r="M152" s="9"/>
     </row>
-    <row r="153">
+    <row r="153" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G153" s="25"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="154">
+    <row r="154" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G154" s="25"/>
       <c r="M154" s="9"/>
     </row>
-    <row r="155">
+    <row r="155" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G155" s="25"/>
       <c r="M155" s="9"/>
     </row>
-    <row r="156">
+    <row r="156" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G156" s="25"/>
       <c r="M156" s="9"/>
     </row>
-    <row r="157">
+    <row r="157" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G157" s="25"/>
       <c r="M157" s="9"/>
     </row>
-    <row r="158">
+    <row r="158" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G158" s="25"/>
       <c r="M158" s="9"/>
     </row>
-    <row r="159">
+    <row r="159" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G159" s="25"/>
       <c r="M159" s="9"/>
     </row>
-    <row r="160">
+    <row r="160" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G160" s="25"/>
       <c r="M160" s="9"/>
     </row>
-    <row r="161">
+    <row r="161" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G161" s="25"/>
       <c r="M161" s="9"/>
     </row>
-    <row r="162">
+    <row r="162" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G162" s="25"/>
       <c r="M162" s="9"/>
     </row>
-    <row r="163">
+    <row r="163" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G163" s="25"/>
       <c r="M163" s="9"/>
     </row>
-    <row r="164">
+    <row r="164" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G164" s="25"/>
       <c r="M164" s="9"/>
     </row>
-    <row r="165">
+    <row r="165" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G165" s="25"/>
       <c r="M165" s="9"/>
     </row>
-    <row r="166">
+    <row r="166" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G166" s="25"/>
       <c r="M166" s="9"/>
     </row>
-    <row r="167">
+    <row r="167" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G167" s="25"/>
       <c r="M167" s="9"/>
     </row>
-    <row r="168">
+    <row r="168" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G168" s="25"/>
       <c r="M168" s="9"/>
     </row>
-    <row r="169">
+    <row r="169" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G169" s="25"/>
       <c r="M169" s="9"/>
     </row>
-    <row r="170">
+    <row r="170" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G170" s="25"/>
       <c r="M170" s="9"/>
     </row>
-    <row r="171">
+    <row r="171" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G171" s="25"/>
       <c r="M171" s="9"/>
     </row>
-    <row r="172">
+    <row r="172" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G172" s="25"/>
       <c r="M172" s="9"/>
     </row>
-    <row r="173">
+    <row r="173" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G173" s="25"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174">
+    <row r="174" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G174" s="25"/>
       <c r="M174" s="9"/>
     </row>
-    <row r="175">
+    <row r="175" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G175" s="25"/>
       <c r="M175" s="9"/>
     </row>
-    <row r="176">
+    <row r="176" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G176" s="25"/>
       <c r="M176" s="9"/>
     </row>
-    <row r="177">
+    <row r="177" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G177" s="25"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178">
+    <row r="178" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G178" s="25"/>
       <c r="M178" s="9"/>
     </row>
-    <row r="179">
+    <row r="179" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G179" s="25"/>
       <c r="M179" s="9"/>
     </row>
-    <row r="180">
+    <row r="180" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G180" s="25"/>
       <c r="M180" s="9"/>
     </row>
-    <row r="181">
+    <row r="181" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G181" s="25"/>
       <c r="M181" s="9"/>
     </row>
-    <row r="182">
+    <row r="182" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G182" s="25"/>
       <c r="M182" s="9"/>
     </row>
-    <row r="183">
+    <row r="183" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G183" s="25"/>
       <c r="M183" s="9"/>
     </row>
-    <row r="184">
+    <row r="184" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G184" s="25"/>
       <c r="M184" s="9"/>
     </row>
-    <row r="185">
+    <row r="185" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G185" s="25"/>
       <c r="M185" s="9"/>
     </row>
-    <row r="186">
+    <row r="186" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G186" s="25"/>
       <c r="M186" s="9"/>
     </row>
-    <row r="187">
+    <row r="187" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G187" s="25"/>
       <c r="M187" s="9"/>
     </row>
-    <row r="188">
+    <row r="188" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G188" s="25"/>
       <c r="M188" s="9"/>
     </row>
-    <row r="189">
+    <row r="189" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G189" s="25"/>
       <c r="M189" s="9"/>
     </row>
-    <row r="190">
+    <row r="190" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G190" s="25"/>
       <c r="M190" s="9"/>
     </row>
-    <row r="191">
+    <row r="191" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G191" s="25"/>
       <c r="M191" s="9"/>
     </row>
-    <row r="192">
+    <row r="192" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G192" s="25"/>
       <c r="M192" s="9"/>
     </row>
-    <row r="193">
+    <row r="193" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G193" s="25"/>
       <c r="M193" s="9"/>
     </row>
-    <row r="194">
+    <row r="194" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G194" s="25"/>
       <c r="M194" s="9"/>
     </row>
-    <row r="195">
+    <row r="195" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G195" s="25"/>
       <c r="M195" s="9"/>
     </row>
-    <row r="196">
+    <row r="196" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G196" s="25"/>
       <c r="M196" s="9"/>
     </row>
-    <row r="197">
+    <row r="197" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G197" s="25"/>
       <c r="M197" s="9"/>
     </row>
-    <row r="198">
+    <row r="198" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G198" s="25"/>
       <c r="M198" s="9"/>
     </row>
-    <row r="199">
+    <row r="199" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G199" s="25"/>
       <c r="M199" s="9"/>
     </row>
-    <row r="200">
+    <row r="200" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G200" s="25"/>
       <c r="M200" s="9"/>
     </row>
-    <row r="201">
+    <row r="201" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G201" s="25"/>
       <c r="M201" s="9"/>
     </row>
-    <row r="202">
+    <row r="202" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G202" s="25"/>
       <c r="M202" s="9"/>
     </row>
-    <row r="203">
+    <row r="203" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G203" s="25"/>
       <c r="M203" s="9"/>
     </row>
-    <row r="204">
+    <row r="204" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G204" s="25"/>
       <c r="M204" s="9"/>
     </row>
-    <row r="205">
+    <row r="205" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G205" s="25"/>
       <c r="M205" s="9"/>
     </row>
-    <row r="206">
+    <row r="206" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G206" s="25"/>
       <c r="M206" s="9"/>
     </row>
-    <row r="207">
+    <row r="207" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G207" s="25"/>
       <c r="M207" s="9"/>
     </row>
-    <row r="208">
+    <row r="208" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G208" s="25"/>
       <c r="M208" s="9"/>
     </row>
-    <row r="209">
+    <row r="209" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G209" s="25"/>
       <c r="M209" s="9"/>
     </row>
-    <row r="210">
+    <row r="210" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G210" s="25"/>
       <c r="M210" s="9"/>
     </row>
-    <row r="211">
+    <row r="211" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G211" s="25"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212">
+    <row r="212" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G212" s="25"/>
       <c r="M212" s="9"/>
     </row>
-    <row r="213">
+    <row r="213" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G213" s="25"/>
       <c r="M213" s="9"/>
     </row>
-    <row r="214">
+    <row r="214" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G214" s="25"/>
       <c r="M214" s="9"/>
     </row>
-    <row r="215">
+    <row r="215" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G215" s="25"/>
       <c r="M215" s="9"/>
     </row>
-    <row r="216">
+    <row r="216" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G216" s="25"/>
       <c r="M216" s="9"/>
     </row>
-    <row r="217">
+    <row r="217" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G217" s="25"/>
       <c r="M217" s="9"/>
     </row>
-    <row r="218">
+    <row r="218" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G218" s="25"/>
       <c r="M218" s="9"/>
     </row>
-    <row r="219">
+    <row r="219" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G219" s="25"/>
       <c r="M219" s="9"/>
     </row>
-    <row r="220">
+    <row r="220" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G220" s="25"/>
       <c r="M220" s="9"/>
     </row>
-    <row r="221">
+    <row r="221" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G221" s="25"/>
       <c r="M221" s="9"/>
     </row>
-    <row r="222">
+    <row r="222" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G222" s="25"/>
       <c r="M222" s="9"/>
     </row>
-    <row r="223">
+    <row r="223" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G223" s="25"/>
       <c r="M223" s="9"/>
     </row>
-    <row r="224">
+    <row r="224" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G224" s="25"/>
       <c r="M224" s="9"/>
     </row>
-    <row r="225">
+    <row r="225" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G225" s="25"/>
       <c r="M225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G226" s="25"/>
       <c r="M226" s="9"/>
     </row>
-    <row r="227">
+    <row r="227" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G227" s="25"/>
       <c r="M227" s="9"/>
     </row>
-    <row r="228">
+    <row r="228" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G228" s="25"/>
       <c r="M228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G229" s="25"/>
       <c r="M229" s="9"/>
     </row>
-    <row r="230">
+    <row r="230" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G230" s="25"/>
       <c r="M230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G231" s="25"/>
       <c r="M231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G232" s="25"/>
       <c r="M232" s="9"/>
     </row>
-    <row r="233">
+    <row r="233" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G233" s="25"/>
       <c r="M233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G234" s="25"/>
       <c r="M234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G235" s="25"/>
       <c r="M235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G236" s="25"/>
       <c r="M236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G237" s="25"/>
       <c r="M237" s="9"/>
     </row>
-    <row r="238">
+    <row r="238" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G238" s="25"/>
       <c r="M238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G239" s="25"/>
       <c r="M239" s="9"/>
     </row>
-    <row r="240">
+    <row r="240" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G240" s="25"/>
       <c r="M240" s="9"/>
     </row>
-    <row r="241">
+    <row r="241" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G241" s="25"/>
       <c r="M241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G242" s="25"/>
       <c r="M242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G243" s="25"/>
       <c r="M243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G244" s="25"/>
       <c r="M244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G245" s="25"/>
       <c r="M245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G246" s="25"/>
       <c r="M246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G247" s="25"/>
       <c r="M247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G248" s="25"/>
       <c r="M248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G249" s="25"/>
       <c r="M249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G250" s="25"/>
       <c r="M250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G251" s="25"/>
       <c r="M251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G252" s="25"/>
       <c r="M252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G253" s="25"/>
       <c r="M253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G254" s="25"/>
       <c r="M254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G255" s="25"/>
       <c r="M255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G256" s="25"/>
       <c r="M256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G257" s="25"/>
       <c r="M257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G258" s="25"/>
       <c r="M258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G259" s="25"/>
       <c r="M259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G260" s="25"/>
       <c r="M260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G261" s="25"/>
       <c r="M261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G262" s="25"/>
       <c r="M262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G263" s="25"/>
       <c r="M263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G264" s="25"/>
       <c r="M264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G265" s="25"/>
       <c r="M265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G266" s="25"/>
       <c r="M266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G267" s="25"/>
       <c r="M267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G268" s="25"/>
       <c r="M268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G269" s="25"/>
       <c r="M269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G270" s="25"/>
       <c r="M270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G271" s="25"/>
       <c r="M271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G272" s="25"/>
       <c r="M272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G273" s="25"/>
       <c r="M273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G274" s="25"/>
       <c r="M274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G275" s="25"/>
       <c r="M275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G276" s="25"/>
       <c r="M276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G277" s="25"/>
       <c r="M277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G278" s="25"/>
       <c r="M278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G279" s="25"/>
       <c r="M279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G280" s="25"/>
       <c r="M280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G281" s="25"/>
       <c r="M281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G282" s="25"/>
       <c r="M282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G283" s="25"/>
       <c r="M283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G284" s="25"/>
       <c r="M284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G285" s="25"/>
       <c r="M285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G286" s="25"/>
       <c r="M286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G287" s="25"/>
       <c r="M287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G288" s="25"/>
       <c r="M288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G289" s="25"/>
       <c r="M289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G290" s="25"/>
       <c r="M290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G291" s="25"/>
       <c r="M291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G292" s="25"/>
       <c r="M292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G293" s="25"/>
       <c r="M293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G294" s="25"/>
       <c r="M294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G295" s="25"/>
       <c r="M295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G296" s="25"/>
       <c r="M296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G297" s="25"/>
       <c r="M297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G298" s="25"/>
       <c r="M298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G299" s="25"/>
       <c r="M299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G300" s="25"/>
       <c r="M300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G301" s="25"/>
       <c r="M301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G302" s="25"/>
       <c r="M302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G303" s="25"/>
       <c r="M303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G304" s="25"/>
       <c r="M304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G305" s="25"/>
       <c r="M305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G306" s="25"/>
       <c r="M306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G307" s="25"/>
       <c r="M307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G308" s="25"/>
       <c r="M308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G309" s="25"/>
       <c r="M309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G310" s="25"/>
       <c r="M310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G311" s="25"/>
       <c r="M311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G312" s="25"/>
       <c r="M312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G313" s="25"/>
       <c r="M313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G314" s="25"/>
       <c r="M314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G315" s="25"/>
       <c r="M315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G316" s="25"/>
       <c r="M316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G317" s="25"/>
       <c r="M317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G318" s="25"/>
       <c r="M318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G319" s="25"/>
       <c r="M319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G320" s="25"/>
       <c r="M320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G321" s="25"/>
       <c r="M321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G322" s="25"/>
       <c r="M322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G323" s="25"/>
       <c r="M323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G324" s="25"/>
       <c r="M324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G325" s="25"/>
       <c r="M325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G326" s="25"/>
       <c r="M326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G327" s="25"/>
       <c r="M327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G328" s="25"/>
       <c r="M328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G329" s="25"/>
       <c r="M329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G330" s="25"/>
       <c r="M330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G331" s="25"/>
       <c r="M331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G332" s="25"/>
       <c r="M332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G333" s="25"/>
       <c r="M333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G334" s="25"/>
       <c r="M334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G335" s="25"/>
       <c r="M335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G336" s="25"/>
       <c r="M336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G337" s="25"/>
       <c r="M337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G338" s="25"/>
       <c r="M338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G339" s="25"/>
       <c r="M339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G340" s="25"/>
       <c r="M340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G341" s="25"/>
       <c r="M341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G342" s="25"/>
       <c r="M342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G343" s="25"/>
       <c r="M343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G344" s="25"/>
       <c r="M344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G345" s="25"/>
       <c r="M345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G346" s="25"/>
       <c r="M346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G347" s="25"/>
       <c r="M347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G348" s="25"/>
       <c r="M348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G349" s="25"/>
       <c r="M349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G350" s="25"/>
       <c r="M350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G351" s="25"/>
       <c r="M351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G352" s="25"/>
       <c r="M352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G353" s="25"/>
       <c r="M353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G354" s="25"/>
       <c r="M354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G355" s="25"/>
       <c r="M355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G356" s="25"/>
       <c r="M356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G357" s="25"/>
       <c r="M357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G358" s="25"/>
       <c r="M358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G359" s="25"/>
       <c r="M359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G360" s="25"/>
       <c r="M360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G361" s="25"/>
       <c r="M361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G362" s="25"/>
       <c r="M362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G363" s="25"/>
       <c r="M363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G364" s="25"/>
       <c r="M364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G365" s="25"/>
       <c r="M365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G366" s="25"/>
       <c r="M366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G367" s="25"/>
       <c r="M367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G368" s="25"/>
       <c r="M368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G369" s="25"/>
       <c r="M369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G370" s="25"/>
       <c r="M370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G371" s="25"/>
       <c r="M371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G372" s="25"/>
       <c r="M372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G373" s="25"/>
       <c r="M373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G374" s="25"/>
       <c r="M374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G375" s="25"/>
       <c r="M375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G376" s="25"/>
       <c r="M376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G377" s="25"/>
       <c r="M377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G378" s="25"/>
       <c r="M378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G379" s="25"/>
       <c r="M379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G380" s="25"/>
       <c r="M380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G381" s="25"/>
       <c r="M381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G382" s="25"/>
       <c r="M382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G383" s="25"/>
       <c r="M383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G384" s="25"/>
       <c r="M384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G385" s="25"/>
       <c r="M385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G386" s="25"/>
       <c r="M386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G387" s="25"/>
       <c r="M387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G388" s="25"/>
       <c r="M388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G389" s="25"/>
       <c r="M389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G390" s="25"/>
       <c r="M390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G391" s="25"/>
       <c r="M391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G392" s="25"/>
       <c r="M392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G393" s="25"/>
       <c r="M393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G394" s="25"/>
       <c r="M394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G395" s="25"/>
       <c r="M395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G396" s="25"/>
       <c r="M396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G397" s="25"/>
       <c r="M397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G398" s="25"/>
       <c r="M398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G399" s="25"/>
       <c r="M399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G400" s="25"/>
       <c r="M400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G401" s="25"/>
       <c r="M401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G402" s="25"/>
       <c r="M402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G403" s="25"/>
       <c r="M403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G404" s="25"/>
       <c r="M404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G405" s="25"/>
       <c r="M405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G406" s="25"/>
       <c r="M406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G407" s="25"/>
       <c r="M407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G408" s="25"/>
       <c r="M408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G409" s="25"/>
       <c r="M409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G410" s="25"/>
       <c r="M410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G411" s="25"/>
       <c r="M411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G412" s="25"/>
       <c r="M412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G413" s="25"/>
       <c r="M413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G414" s="25"/>
       <c r="M414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G415" s="25"/>
       <c r="M415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G416" s="25"/>
       <c r="M416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G417" s="25"/>
       <c r="M417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G418" s="25"/>
       <c r="M418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G419" s="25"/>
       <c r="M419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G420" s="25"/>
       <c r="M420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G421" s="25"/>
       <c r="M421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G422" s="25"/>
       <c r="M422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G423" s="25"/>
       <c r="M423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G424" s="25"/>
       <c r="M424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G425" s="25"/>
       <c r="M425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G426" s="25"/>
       <c r="M426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G427" s="25"/>
       <c r="M427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G428" s="25"/>
       <c r="M428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G429" s="25"/>
       <c r="M429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G430" s="25"/>
       <c r="M430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G431" s="25"/>
       <c r="M431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G432" s="25"/>
       <c r="M432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G433" s="25"/>
       <c r="M433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G434" s="25"/>
       <c r="M434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G435" s="25"/>
       <c r="M435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G436" s="25"/>
       <c r="M436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G437" s="25"/>
       <c r="M437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G438" s="25"/>
       <c r="M438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G439" s="25"/>
       <c r="M439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G440" s="25"/>
       <c r="M440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G441" s="25"/>
       <c r="M441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G442" s="25"/>
       <c r="M442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G443" s="25"/>
       <c r="M443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G444" s="25"/>
       <c r="M444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G445" s="25"/>
       <c r="M445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G446" s="25"/>
       <c r="M446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G447" s="25"/>
       <c r="M447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G448" s="25"/>
       <c r="M448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G449" s="25"/>
       <c r="M449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G450" s="25"/>
       <c r="M450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G451" s="25"/>
       <c r="M451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G452" s="25"/>
       <c r="M452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G453" s="25"/>
       <c r="M453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G454" s="25"/>
       <c r="M454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G455" s="25"/>
       <c r="M455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G456" s="25"/>
       <c r="M456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G457" s="25"/>
       <c r="M457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G458" s="25"/>
       <c r="M458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G459" s="25"/>
       <c r="M459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G460" s="25"/>
       <c r="M460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G461" s="25"/>
       <c r="M461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G462" s="25"/>
       <c r="M462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G463" s="25"/>
       <c r="M463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G464" s="25"/>
       <c r="M464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G465" s="25"/>
       <c r="M465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G466" s="25"/>
       <c r="M466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G467" s="25"/>
       <c r="M467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G468" s="25"/>
       <c r="M468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G469" s="25"/>
       <c r="M469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G470" s="25"/>
       <c r="M470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G471" s="25"/>
       <c r="M471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G472" s="25"/>
       <c r="M472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G473" s="25"/>
       <c r="M473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G474" s="25"/>
       <c r="M474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G475" s="25"/>
       <c r="M475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G476" s="25"/>
       <c r="M476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G477" s="25"/>
       <c r="M477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G478" s="25"/>
       <c r="M478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G479" s="25"/>
       <c r="M479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G480" s="25"/>
       <c r="M480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G481" s="25"/>
       <c r="M481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G482" s="25"/>
       <c r="M482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G483" s="25"/>
       <c r="M483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G484" s="25"/>
       <c r="M484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G485" s="25"/>
       <c r="M485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G486" s="25"/>
       <c r="M486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G487" s="25"/>
       <c r="M487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G488" s="25"/>
       <c r="M488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G489" s="25"/>
       <c r="M489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G490" s="25"/>
       <c r="M490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G491" s="25"/>
       <c r="M491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G492" s="25"/>
       <c r="M492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G493" s="25"/>
       <c r="M493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G494" s="25"/>
       <c r="M494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G495" s="25"/>
       <c r="M495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G496" s="25"/>
       <c r="M496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G497" s="25"/>
       <c r="M497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G498" s="25"/>
       <c r="M498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G499" s="25"/>
       <c r="M499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G500" s="25"/>
       <c r="M500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G501" s="25"/>
       <c r="M501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G502" s="25"/>
       <c r="M502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G503" s="25"/>
       <c r="M503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G504" s="25"/>
       <c r="M504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G505" s="25"/>
       <c r="M505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G506" s="25"/>
       <c r="M506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G507" s="25"/>
       <c r="M507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G508" s="25"/>
       <c r="M508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G509" s="25"/>
       <c r="M509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G510" s="25"/>
       <c r="M510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G511" s="25"/>
       <c r="M511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G512" s="25"/>
       <c r="M512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G513" s="25"/>
       <c r="M513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G514" s="25"/>
       <c r="M514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G515" s="25"/>
       <c r="M515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G516" s="25"/>
       <c r="M516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G517" s="25"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G518" s="25"/>
       <c r="M518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G519" s="25"/>
       <c r="M519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G520" s="25"/>
       <c r="M520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G521" s="25"/>
       <c r="M521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G522" s="25"/>
       <c r="M522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G523" s="25"/>
       <c r="M523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G524" s="25"/>
       <c r="M524" s="9"/>
     </row>
-    <row r="525">
+    <row r="525" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G525" s="25"/>
       <c r="M525" s="9"/>
     </row>
-    <row r="526">
+    <row r="526" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G526" s="25"/>
       <c r="M526" s="9"/>
     </row>
-    <row r="527">
+    <row r="527" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G527" s="25"/>
       <c r="M527" s="9"/>
     </row>
-    <row r="528">
+    <row r="528" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G528" s="25"/>
       <c r="M528" s="9"/>
     </row>
-    <row r="529">
+    <row r="529" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G529" s="25"/>
       <c r="M529" s="9"/>
     </row>
-    <row r="530">
+    <row r="530" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G530" s="25"/>
       <c r="M530" s="9"/>
     </row>
-    <row r="531">
+    <row r="531" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G531" s="25"/>
       <c r="M531" s="9"/>
     </row>
-    <row r="532">
+    <row r="532" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G532" s="25"/>
       <c r="M532" s="9"/>
     </row>
-    <row r="533">
+    <row r="533" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G533" s="25"/>
       <c r="M533" s="9"/>
     </row>
-    <row r="534">
+    <row r="534" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G534" s="25"/>
       <c r="M534" s="9"/>
     </row>
-    <row r="535">
+    <row r="535" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G535" s="25"/>
       <c r="M535" s="9"/>
     </row>
-    <row r="536">
+    <row r="536" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G536" s="25"/>
       <c r="M536" s="9"/>
     </row>
-    <row r="537">
+    <row r="537" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G537" s="25"/>
       <c r="M537" s="9"/>
     </row>
-    <row r="538">
+    <row r="538" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G538" s="25"/>
       <c r="M538" s="9"/>
     </row>
-    <row r="539">
+    <row r="539" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G539" s="25"/>
       <c r="M539" s="9"/>
     </row>
-    <row r="540">
+    <row r="540" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G540" s="25"/>
       <c r="M540" s="9"/>
     </row>
-    <row r="541">
+    <row r="541" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G541" s="25"/>
       <c r="M541" s="9"/>
     </row>
-    <row r="542">
+    <row r="542" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G542" s="25"/>
       <c r="M542" s="9"/>
     </row>
-    <row r="543">
+    <row r="543" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G543" s="25"/>
       <c r="M543" s="9"/>
     </row>
-    <row r="544">
+    <row r="544" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G544" s="25"/>
       <c r="M544" s="9"/>
     </row>
-    <row r="545">
+    <row r="545" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G545" s="25"/>
       <c r="M545" s="9"/>
     </row>
-    <row r="546">
+    <row r="546" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G546" s="25"/>
       <c r="M546" s="9"/>
     </row>
-    <row r="547">
+    <row r="547" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G547" s="25"/>
       <c r="M547" s="9"/>
     </row>
-    <row r="548">
+    <row r="548" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G548" s="25"/>
       <c r="M548" s="9"/>
     </row>
-    <row r="549">
+    <row r="549" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G549" s="25"/>
       <c r="M549" s="9"/>
     </row>
-    <row r="550">
+    <row r="550" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G550" s="25"/>
       <c r="M550" s="9"/>
     </row>
-    <row r="551">
+    <row r="551" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G551" s="25"/>
       <c r="M551" s="9"/>
     </row>
-    <row r="552">
+    <row r="552" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G552" s="25"/>
       <c r="M552" s="9"/>
     </row>
-    <row r="553">
+    <row r="553" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G553" s="25"/>
       <c r="M553" s="9"/>
     </row>
-    <row r="554">
+    <row r="554" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G554" s="25"/>
       <c r="M554" s="9"/>
     </row>
-    <row r="555">
+    <row r="555" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G555" s="25"/>
       <c r="M555" s="9"/>
     </row>
-    <row r="556">
+    <row r="556" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G556" s="25"/>
       <c r="M556" s="9"/>
     </row>
-    <row r="557">
+    <row r="557" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G557" s="25"/>
       <c r="M557" s="9"/>
     </row>
-    <row r="558">
+    <row r="558" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G558" s="25"/>
       <c r="M558" s="9"/>
     </row>
-    <row r="559">
+    <row r="559" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G559" s="25"/>
       <c r="M559" s="9"/>
     </row>
-    <row r="560">
+    <row r="560" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G560" s="25"/>
       <c r="M560" s="9"/>
     </row>
-    <row r="561">
+    <row r="561" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G561" s="25"/>
       <c r="M561" s="9"/>
     </row>
-    <row r="562">
+    <row r="562" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G562" s="25"/>
       <c r="M562" s="9"/>
     </row>
-    <row r="563">
+    <row r="563" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G563" s="25"/>
       <c r="M563" s="9"/>
     </row>
-    <row r="564">
+    <row r="564" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G564" s="25"/>
       <c r="M564" s="9"/>
     </row>
-    <row r="565">
+    <row r="565" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G565" s="25"/>
       <c r="M565" s="9"/>
     </row>
-    <row r="566">
+    <row r="566" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G566" s="25"/>
       <c r="M566" s="9"/>
     </row>
-    <row r="567">
+    <row r="567" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G567" s="25"/>
       <c r="M567" s="9"/>
     </row>
-    <row r="568">
+    <row r="568" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G568" s="25"/>
       <c r="M568" s="9"/>
     </row>
-    <row r="569">
+    <row r="569" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G569" s="25"/>
       <c r="M569" s="9"/>
     </row>
-    <row r="570">
+    <row r="570" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G570" s="25"/>
       <c r="M570" s="9"/>
     </row>
-    <row r="571">
+    <row r="571" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G571" s="25"/>
       <c r="M571" s="9"/>
     </row>
-    <row r="572">
+    <row r="572" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G572" s="25"/>
       <c r="M572" s="9"/>
     </row>
-    <row r="573">
+    <row r="573" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G573" s="25"/>
       <c r="M573" s="9"/>
     </row>
-    <row r="574">
+    <row r="574" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G574" s="25"/>
       <c r="M574" s="9"/>
     </row>
-    <row r="575">
+    <row r="575" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G575" s="25"/>
       <c r="M575" s="9"/>
     </row>
-    <row r="576">
+    <row r="576" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G576" s="25"/>
       <c r="M576" s="9"/>
     </row>
-    <row r="577">
+    <row r="577" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G577" s="25"/>
       <c r="M577" s="9"/>
     </row>
-    <row r="578">
+    <row r="578" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G578" s="25"/>
       <c r="M578" s="9"/>
     </row>
-    <row r="579">
+    <row r="579" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G579" s="25"/>
       <c r="M579" s="9"/>
     </row>
-    <row r="580">
+    <row r="580" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G580" s="25"/>
       <c r="M580" s="9"/>
     </row>
-    <row r="581">
+    <row r="581" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G581" s="25"/>
       <c r="M581" s="9"/>
     </row>
-    <row r="582">
+    <row r="582" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G582" s="25"/>
       <c r="M582" s="9"/>
     </row>
-    <row r="583">
+    <row r="583" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G583" s="25"/>
       <c r="M583" s="9"/>
     </row>
-    <row r="584">
+    <row r="584" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G584" s="25"/>
       <c r="M584" s="9"/>
     </row>
-    <row r="585">
+    <row r="585" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G585" s="25"/>
       <c r="M585" s="9"/>
     </row>
-    <row r="586">
+    <row r="586" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G586" s="25"/>
       <c r="M586" s="9"/>
     </row>
-    <row r="587">
+    <row r="587" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G587" s="25"/>
       <c r="M587" s="9"/>
     </row>
-    <row r="588">
+    <row r="588" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G588" s="25"/>
       <c r="M588" s="9"/>
     </row>
-    <row r="589">
+    <row r="589" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G589" s="25"/>
       <c r="M589" s="9"/>
     </row>
-    <row r="590">
+    <row r="590" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G590" s="25"/>
       <c r="M590" s="9"/>
     </row>
-    <row r="591">
+    <row r="591" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G591" s="25"/>
       <c r="M591" s="9"/>
     </row>
-    <row r="592">
+    <row r="592" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G592" s="25"/>
       <c r="M592" s="9"/>
     </row>
-    <row r="593">
+    <row r="593" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G593" s="25"/>
       <c r="M593" s="9"/>
     </row>
-    <row r="594">
+    <row r="594" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G594" s="25"/>
       <c r="M594" s="9"/>
     </row>
-    <row r="595">
+    <row r="595" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G595" s="25"/>
       <c r="M595" s="9"/>
     </row>
-    <row r="596">
+    <row r="596" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G596" s="25"/>
       <c r="M596" s="9"/>
     </row>
-    <row r="597">
+    <row r="597" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G597" s="25"/>
       <c r="M597" s="9"/>
     </row>
-    <row r="598">
+    <row r="598" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G598" s="25"/>
       <c r="M598" s="9"/>
     </row>
-    <row r="599">
+    <row r="599" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G599" s="25"/>
       <c r="M599" s="9"/>
     </row>
-    <row r="600">
+    <row r="600" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G600" s="25"/>
       <c r="M600" s="9"/>
     </row>
-    <row r="601">
+    <row r="601" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G601" s="25"/>
       <c r="M601" s="9"/>
     </row>
-    <row r="602">
+    <row r="602" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G602" s="25"/>
       <c r="M602" s="9"/>
     </row>
-    <row r="603">
+    <row r="603" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G603" s="25"/>
       <c r="M603" s="9"/>
     </row>
-    <row r="604">
+    <row r="604" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G604" s="25"/>
       <c r="M604" s="9"/>
     </row>
-    <row r="605">
+    <row r="605" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G605" s="25"/>
       <c r="M605" s="9"/>
     </row>
-    <row r="606">
+    <row r="606" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G606" s="25"/>
       <c r="M606" s="9"/>
     </row>
-    <row r="607">
+    <row r="607" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G607" s="25"/>
       <c r="M607" s="9"/>
     </row>
-    <row r="608">
+    <row r="608" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G608" s="25"/>
       <c r="M608" s="9"/>
     </row>
-    <row r="609">
+    <row r="609" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G609" s="25"/>
       <c r="M609" s="9"/>
     </row>
-    <row r="610">
+    <row r="610" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G610" s="25"/>
       <c r="M610" s="9"/>
     </row>
-    <row r="611">
+    <row r="611" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G611" s="25"/>
       <c r="M611" s="9"/>
     </row>
-    <row r="612">
+    <row r="612" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G612" s="25"/>
       <c r="M612" s="9"/>
     </row>
-    <row r="613">
+    <row r="613" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G613" s="25"/>
       <c r="M613" s="9"/>
     </row>
-    <row r="614">
+    <row r="614" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G614" s="25"/>
       <c r="M614" s="9"/>
     </row>
-    <row r="615">
+    <row r="615" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G615" s="25"/>
       <c r="M615" s="9"/>
     </row>
-    <row r="616">
+    <row r="616" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G616" s="25"/>
       <c r="M616" s="9"/>
     </row>
-    <row r="617">
+    <row r="617" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G617" s="25"/>
       <c r="M617" s="9"/>
     </row>
-    <row r="618">
+    <row r="618" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G618" s="25"/>
       <c r="M618" s="9"/>
     </row>
-    <row r="619">
+    <row r="619" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G619" s="25"/>
       <c r="M619" s="9"/>
     </row>
-    <row r="620">
+    <row r="620" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G620" s="25"/>
       <c r="M620" s="9"/>
     </row>
-    <row r="621">
+    <row r="621" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G621" s="25"/>
       <c r="M621" s="9"/>
     </row>
-    <row r="622">
+    <row r="622" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G622" s="25"/>
       <c r="M622" s="9"/>
     </row>
-    <row r="623">
+    <row r="623" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G623" s="25"/>
       <c r="M623" s="9"/>
     </row>
-    <row r="624">
+    <row r="624" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G624" s="25"/>
       <c r="M624" s="9"/>
     </row>
-    <row r="625">
+    <row r="625" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G625" s="25"/>
       <c r="M625" s="9"/>
     </row>
-    <row r="626">
+    <row r="626" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G626" s="25"/>
       <c r="M626" s="9"/>
     </row>
-    <row r="627">
+    <row r="627" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G627" s="25"/>
       <c r="M627" s="9"/>
     </row>
-    <row r="628">
+    <row r="628" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G628" s="25"/>
       <c r="M628" s="9"/>
     </row>
-    <row r="629">
+    <row r="629" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G629" s="25"/>
       <c r="M629" s="9"/>
     </row>
-    <row r="630">
+    <row r="630" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G630" s="25"/>
       <c r="M630" s="9"/>
     </row>
-    <row r="631">
+    <row r="631" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G631" s="25"/>
       <c r="M631" s="9"/>
     </row>
-    <row r="632">
+    <row r="632" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G632" s="25"/>
       <c r="M632" s="9"/>
     </row>
-    <row r="633">
+    <row r="633" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G633" s="25"/>
       <c r="M633" s="9"/>
     </row>
-    <row r="634">
+    <row r="634" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G634" s="25"/>
       <c r="M634" s="9"/>
     </row>
-    <row r="635">
+    <row r="635" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G635" s="25"/>
       <c r="M635" s="9"/>
     </row>
-    <row r="636">
+    <row r="636" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G636" s="25"/>
       <c r="M636" s="9"/>
     </row>
-    <row r="637">
+    <row r="637" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G637" s="25"/>
       <c r="M637" s="9"/>
     </row>
-    <row r="638">
+    <row r="638" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G638" s="25"/>
       <c r="M638" s="9"/>
     </row>
-    <row r="639">
+    <row r="639" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G639" s="25"/>
       <c r="M639" s="9"/>
     </row>
-    <row r="640">
+    <row r="640" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G640" s="25"/>
       <c r="M640" s="9"/>
     </row>
-    <row r="641">
+    <row r="641" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G641" s="25"/>
       <c r="M641" s="9"/>
     </row>
-    <row r="642">
+    <row r="642" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G642" s="25"/>
       <c r="M642" s="9"/>
     </row>
-    <row r="643">
+    <row r="643" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G643" s="25"/>
       <c r="M643" s="9"/>
     </row>
-    <row r="644">
+    <row r="644" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G644" s="25"/>
       <c r="M644" s="9"/>
     </row>
-    <row r="645">
+    <row r="645" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G645" s="25"/>
       <c r="M645" s="9"/>
     </row>
-    <row r="646">
+    <row r="646" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G646" s="25"/>
       <c r="M646" s="9"/>
     </row>
-    <row r="647">
+    <row r="647" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G647" s="25"/>
       <c r="M647" s="9"/>
     </row>
-    <row r="648">
+    <row r="648" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G648" s="25"/>
       <c r="M648" s="9"/>
     </row>
-    <row r="649">
+    <row r="649" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G649" s="25"/>
       <c r="M649" s="9"/>
     </row>
-    <row r="650">
+    <row r="650" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G650" s="25"/>
       <c r="M650" s="9"/>
     </row>
-    <row r="651">
+    <row r="651" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G651" s="25"/>
       <c r="M651" s="9"/>
     </row>
-    <row r="652">
+    <row r="652" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G652" s="25"/>
       <c r="M652" s="9"/>
     </row>
-    <row r="653">
+    <row r="653" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G653" s="25"/>
       <c r="M653" s="9"/>
     </row>
-    <row r="654">
+    <row r="654" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G654" s="25"/>
       <c r="M654" s="9"/>
     </row>
-    <row r="655">
+    <row r="655" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G655" s="25"/>
       <c r="M655" s="9"/>
     </row>
-    <row r="656">
+    <row r="656" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G656" s="25"/>
       <c r="M656" s="9"/>
     </row>
-    <row r="657">
+    <row r="657" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G657" s="25"/>
       <c r="M657" s="9"/>
     </row>
-    <row r="658">
+    <row r="658" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G658" s="25"/>
       <c r="M658" s="9"/>
     </row>
-    <row r="659">
+    <row r="659" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G659" s="25"/>
       <c r="M659" s="9"/>
     </row>
-    <row r="660">
+    <row r="660" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G660" s="25"/>
       <c r="M660" s="9"/>
     </row>
-    <row r="661">
+    <row r="661" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G661" s="25"/>
       <c r="M661" s="9"/>
     </row>
-    <row r="662">
+    <row r="662" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G662" s="25"/>
       <c r="M662" s="9"/>
     </row>
-    <row r="663">
+    <row r="663" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G663" s="25"/>
       <c r="M663" s="9"/>
     </row>
-    <row r="664">
+    <row r="664" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G664" s="25"/>
       <c r="M664" s="9"/>
     </row>
-    <row r="665">
+    <row r="665" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G665" s="25"/>
       <c r="M665" s="9"/>
     </row>
-    <row r="666">
+    <row r="666" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G666" s="25"/>
       <c r="M666" s="9"/>
     </row>
-    <row r="667">
+    <row r="667" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G667" s="25"/>
       <c r="M667" s="9"/>
     </row>
-    <row r="668">
+    <row r="668" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G668" s="25"/>
       <c r="M668" s="9"/>
     </row>
-    <row r="669">
+    <row r="669" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G669" s="25"/>
       <c r="M669" s="9"/>
     </row>
-    <row r="670">
+    <row r="670" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G670" s="25"/>
       <c r="M670" s="9"/>
     </row>
-    <row r="671">
+    <row r="671" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G671" s="25"/>
       <c r="M671" s="9"/>
     </row>
-    <row r="672">
+    <row r="672" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G672" s="25"/>
       <c r="M672" s="9"/>
     </row>
-    <row r="673">
+    <row r="673" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G673" s="25"/>
       <c r="M673" s="9"/>
     </row>
-    <row r="674">
+    <row r="674" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G674" s="25"/>
       <c r="M674" s="9"/>
     </row>
-    <row r="675">
+    <row r="675" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G675" s="25"/>
       <c r="M675" s="9"/>
     </row>
-    <row r="676">
+    <row r="676" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G676" s="25"/>
       <c r="M676" s="9"/>
     </row>
-    <row r="677">
+    <row r="677" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G677" s="25"/>
       <c r="M677" s="9"/>
     </row>
-    <row r="678">
+    <row r="678" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G678" s="25"/>
       <c r="M678" s="9"/>
     </row>
-    <row r="679">
+    <row r="679" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G679" s="25"/>
       <c r="M679" s="9"/>
     </row>
-    <row r="680">
+    <row r="680" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G680" s="25"/>
       <c r="M680" s="9"/>
     </row>
-    <row r="681">
+    <row r="681" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G681" s="25"/>
       <c r="M681" s="9"/>
     </row>
-    <row r="682">
+    <row r="682" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G682" s="25"/>
       <c r="M682" s="9"/>
     </row>
-    <row r="683">
+    <row r="683" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G683" s="25"/>
       <c r="M683" s="9"/>
     </row>
-    <row r="684">
+    <row r="684" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G684" s="25"/>
       <c r="M684" s="9"/>
     </row>
-    <row r="685">
+    <row r="685" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G685" s="25"/>
       <c r="M685" s="9"/>
     </row>
-    <row r="686">
+    <row r="686" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G686" s="25"/>
       <c r="M686" s="9"/>
     </row>
-    <row r="687">
+    <row r="687" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G687" s="25"/>
       <c r="M687" s="9"/>
     </row>
-    <row r="688">
+    <row r="688" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G688" s="25"/>
       <c r="M688" s="9"/>
     </row>
-    <row r="689">
+    <row r="689" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G689" s="25"/>
       <c r="M689" s="9"/>
     </row>
-    <row r="690">
+    <row r="690" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G690" s="25"/>
       <c r="M690" s="9"/>
     </row>
-    <row r="691">
+    <row r="691" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G691" s="25"/>
       <c r="M691" s="9"/>
     </row>
-    <row r="692">
+    <row r="692" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G692" s="25"/>
       <c r="M692" s="9"/>
     </row>
-    <row r="693">
+    <row r="693" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G693" s="25"/>
       <c r="M693" s="9"/>
     </row>
-    <row r="694">
+    <row r="694" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G694" s="25"/>
       <c r="M694" s="9"/>
     </row>
-    <row r="695">
+    <row r="695" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G695" s="25"/>
       <c r="M695" s="9"/>
     </row>
-    <row r="696">
+    <row r="696" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G696" s="25"/>
       <c r="M696" s="9"/>
     </row>
-    <row r="697">
+    <row r="697" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G697" s="25"/>
       <c r="M697" s="9"/>
     </row>
-    <row r="698">
+    <row r="698" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G698" s="25"/>
       <c r="M698" s="9"/>
     </row>
-    <row r="699">
+    <row r="699" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G699" s="25"/>
       <c r="M699" s="9"/>
     </row>
-    <row r="700">
+    <row r="700" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G700" s="25"/>
       <c r="M700" s="9"/>
     </row>
-    <row r="701">
+    <row r="701" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G701" s="25"/>
       <c r="M701" s="9"/>
     </row>
-    <row r="702">
+    <row r="702" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G702" s="25"/>
       <c r="M702" s="9"/>
     </row>
-    <row r="703">
+    <row r="703" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G703" s="25"/>
       <c r="M703" s="9"/>
     </row>
-    <row r="704">
+    <row r="704" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G704" s="25"/>
       <c r="M704" s="9"/>
     </row>
-    <row r="705">
+    <row r="705" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G705" s="25"/>
       <c r="M705" s="9"/>
     </row>
-    <row r="706">
+    <row r="706" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G706" s="25"/>
       <c r="M706" s="9"/>
     </row>
-    <row r="707">
+    <row r="707" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G707" s="25"/>
       <c r="M707" s="9"/>
     </row>
-    <row r="708">
+    <row r="708" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G708" s="25"/>
       <c r="M708" s="9"/>
     </row>
-    <row r="709">
+    <row r="709" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G709" s="25"/>
       <c r="M709" s="9"/>
     </row>
-    <row r="710">
+    <row r="710" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G710" s="25"/>
       <c r="M710" s="9"/>
     </row>
-    <row r="711">
+    <row r="711" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G711" s="25"/>
       <c r="M711" s="9"/>
     </row>
-    <row r="712">
+    <row r="712" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G712" s="25"/>
       <c r="M712" s="9"/>
     </row>
-    <row r="713">
+    <row r="713" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G713" s="25"/>
       <c r="M713" s="9"/>
     </row>
-    <row r="714">
+    <row r="714" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G714" s="25"/>
       <c r="M714" s="9"/>
     </row>
-    <row r="715">
+    <row r="715" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G715" s="25"/>
       <c r="M715" s="9"/>
     </row>
-    <row r="716">
+    <row r="716" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G716" s="25"/>
       <c r="M716" s="9"/>
     </row>
-    <row r="717">
+    <row r="717" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G717" s="25"/>
       <c r="M717" s="9"/>
     </row>
-    <row r="718">
+    <row r="718" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G718" s="25"/>
       <c r="M718" s="9"/>
     </row>
-    <row r="719">
+    <row r="719" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G719" s="25"/>
       <c r="M719" s="9"/>
     </row>
-    <row r="720">
+    <row r="720" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G720" s="25"/>
       <c r="M720" s="9"/>
     </row>
-    <row r="721">
+    <row r="721" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G721" s="25"/>
       <c r="M721" s="9"/>
     </row>
-    <row r="722">
+    <row r="722" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G722" s="25"/>
       <c r="M722" s="9"/>
     </row>
-    <row r="723">
+    <row r="723" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G723" s="25"/>
       <c r="M723" s="9"/>
     </row>
-    <row r="724">
+    <row r="724" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G724" s="25"/>
       <c r="M724" s="9"/>
     </row>
-    <row r="725">
+    <row r="725" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G725" s="25"/>
       <c r="M725" s="9"/>
     </row>
-    <row r="726">
+    <row r="726" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G726" s="25"/>
       <c r="M726" s="9"/>
     </row>
-    <row r="727">
+    <row r="727" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G727" s="25"/>
       <c r="M727" s="9"/>
     </row>
-    <row r="728">
+    <row r="728" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G728" s="25"/>
       <c r="M728" s="9"/>
     </row>
-    <row r="729">
+    <row r="729" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G729" s="25"/>
       <c r="M729" s="9"/>
     </row>
-    <row r="730">
+    <row r="730" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G730" s="25"/>
       <c r="M730" s="9"/>
     </row>
-    <row r="731">
+    <row r="731" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G731" s="25"/>
       <c r="M731" s="9"/>
     </row>
-    <row r="732">
+    <row r="732" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G732" s="25"/>
       <c r="M732" s="9"/>
     </row>
-    <row r="733">
+    <row r="733" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G733" s="25"/>
       <c r="M733" s="9"/>
     </row>
-    <row r="734">
+    <row r="734" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G734" s="25"/>
       <c r="M734" s="9"/>
     </row>
-    <row r="735">
+    <row r="735" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G735" s="25"/>
       <c r="M735" s="9"/>
     </row>
-    <row r="736">
+    <row r="736" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G736" s="25"/>
       <c r="M736" s="9"/>
     </row>
-    <row r="737">
+    <row r="737" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G737" s="25"/>
       <c r="M737" s="9"/>
     </row>
-    <row r="738">
+    <row r="738" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G738" s="25"/>
       <c r="M738" s="9"/>
     </row>
-    <row r="739">
+    <row r="739" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G739" s="25"/>
       <c r="M739" s="9"/>
     </row>
-    <row r="740">
+    <row r="740" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G740" s="25"/>
       <c r="M740" s="9"/>
     </row>
-    <row r="741">
+    <row r="741" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G741" s="25"/>
       <c r="M741" s="9"/>
     </row>
-    <row r="742">
+    <row r="742" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G742" s="25"/>
       <c r="M742" s="9"/>
     </row>
-    <row r="743">
+    <row r="743" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G743" s="25"/>
       <c r="M743" s="9"/>
     </row>
-    <row r="744">
+    <row r="744" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G744" s="25"/>
       <c r="M744" s="9"/>
     </row>
-    <row r="745">
+    <row r="745" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G745" s="25"/>
       <c r="M745" s="9"/>
     </row>
-    <row r="746">
+    <row r="746" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G746" s="25"/>
       <c r="M746" s="9"/>
     </row>
-    <row r="747">
+    <row r="747" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G747" s="25"/>
       <c r="M747" s="9"/>
     </row>
-    <row r="748">
+    <row r="748" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G748" s="25"/>
       <c r="M748" s="9"/>
     </row>
-    <row r="749">
+    <row r="749" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G749" s="25"/>
       <c r="M749" s="9"/>
     </row>
-    <row r="750">
+    <row r="750" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G750" s="25"/>
       <c r="M750" s="9"/>
     </row>
-    <row r="751">
+    <row r="751" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G751" s="25"/>
       <c r="M751" s="9"/>
     </row>
-    <row r="752">
+    <row r="752" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G752" s="25"/>
       <c r="M752" s="9"/>
     </row>
-    <row r="753">
+    <row r="753" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G753" s="25"/>
       <c r="M753" s="9"/>
     </row>
-    <row r="754">
+    <row r="754" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G754" s="25"/>
       <c r="M754" s="9"/>
     </row>
-    <row r="755">
+    <row r="755" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G755" s="25"/>
       <c r="M755" s="9"/>
     </row>
-    <row r="756">
+    <row r="756" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G756" s="25"/>
       <c r="M756" s="9"/>
     </row>
-    <row r="757">
+    <row r="757" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G757" s="25"/>
       <c r="M757" s="9"/>
     </row>
-    <row r="758">
+    <row r="758" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G758" s="25"/>
       <c r="M758" s="9"/>
     </row>
-    <row r="759">
+    <row r="759" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G759" s="25"/>
       <c r="M759" s="9"/>
     </row>
-    <row r="760">
+    <row r="760" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G760" s="25"/>
       <c r="M760" s="9"/>
     </row>
-    <row r="761">
+    <row r="761" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G761" s="25"/>
       <c r="M761" s="9"/>
     </row>
-    <row r="762">
+    <row r="762" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G762" s="25"/>
       <c r="M762" s="9"/>
     </row>
-    <row r="763">
+    <row r="763" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G763" s="25"/>
       <c r="M763" s="9"/>
     </row>
-    <row r="764">
+    <row r="764" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G764" s="25"/>
       <c r="M764" s="9"/>
     </row>
-    <row r="765">
+    <row r="765" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G765" s="25"/>
       <c r="M765" s="9"/>
     </row>
-    <row r="766">
+    <row r="766" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G766" s="25"/>
       <c r="M766" s="9"/>
     </row>
-    <row r="767">
+    <row r="767" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G767" s="25"/>
       <c r="M767" s="9"/>
     </row>
-    <row r="768">
+    <row r="768" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G768" s="25"/>
       <c r="M768" s="9"/>
     </row>
-    <row r="769">
+    <row r="769" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G769" s="25"/>
       <c r="M769" s="9"/>
     </row>
-    <row r="770">
+    <row r="770" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G770" s="25"/>
       <c r="M770" s="9"/>
     </row>
-    <row r="771">
+    <row r="771" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G771" s="25"/>
       <c r="M771" s="9"/>
     </row>
-    <row r="772">
+    <row r="772" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G772" s="25"/>
       <c r="M772" s="9"/>
     </row>
-    <row r="773">
+    <row r="773" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G773" s="25"/>
       <c r="M773" s="9"/>
     </row>
-    <row r="774">
+    <row r="774" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G774" s="25"/>
       <c r="M774" s="9"/>
     </row>
-    <row r="775">
+    <row r="775" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G775" s="25"/>
       <c r="M775" s="9"/>
     </row>
-    <row r="776">
+    <row r="776" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G776" s="25"/>
       <c r="M776" s="9"/>
     </row>
-    <row r="777">
+    <row r="777" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G777" s="25"/>
       <c r="M777" s="9"/>
     </row>
-    <row r="778">
+    <row r="778" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G778" s="25"/>
       <c r="M778" s="9"/>
     </row>
-    <row r="779">
+    <row r="779" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G779" s="25"/>
       <c r="M779" s="9"/>
     </row>
-    <row r="780">
+    <row r="780" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G780" s="25"/>
       <c r="M780" s="9"/>
     </row>
-    <row r="781">
+    <row r="781" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G781" s="25"/>
       <c r="M781" s="9"/>
     </row>
-    <row r="782">
+    <row r="782" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G782" s="25"/>
       <c r="M782" s="9"/>
     </row>
-    <row r="783">
+    <row r="783" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G783" s="25"/>
       <c r="M783" s="9"/>
     </row>
-    <row r="784">
+    <row r="784" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G784" s="25"/>
       <c r="M784" s="9"/>
     </row>
-    <row r="785">
+    <row r="785" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G785" s="25"/>
       <c r="M785" s="9"/>
     </row>
-    <row r="786">
+    <row r="786" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G786" s="25"/>
       <c r="M786" s="9"/>
     </row>
-    <row r="787">
+    <row r="787" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G787" s="25"/>
       <c r="M787" s="9"/>
     </row>
-    <row r="788">
+    <row r="788" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G788" s="25"/>
       <c r="M788" s="9"/>
     </row>
-    <row r="789">
+    <row r="789" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G789" s="25"/>
       <c r="M789" s="9"/>
     </row>
-    <row r="790">
+    <row r="790" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G790" s="25"/>
       <c r="M790" s="9"/>
     </row>
-    <row r="791">
+    <row r="791" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G791" s="25"/>
       <c r="M791" s="9"/>
     </row>
-    <row r="792">
+    <row r="792" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G792" s="25"/>
       <c r="M792" s="9"/>
     </row>
-    <row r="793">
+    <row r="793" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G793" s="25"/>
       <c r="M793" s="9"/>
     </row>
-    <row r="794">
+    <row r="794" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G794" s="25"/>
       <c r="M794" s="9"/>
     </row>
-    <row r="795">
+    <row r="795" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G795" s="25"/>
       <c r="M795" s="9"/>
     </row>
-    <row r="796">
+    <row r="796" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G796" s="25"/>
       <c r="M796" s="9"/>
     </row>
-    <row r="797">
+    <row r="797" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G797" s="25"/>
       <c r="M797" s="9"/>
     </row>
-    <row r="798">
+    <row r="798" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G798" s="25"/>
       <c r="M798" s="9"/>
     </row>
-    <row r="799">
+    <row r="799" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G799" s="25"/>
       <c r="M799" s="9"/>
     </row>
-    <row r="800">
+    <row r="800" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G800" s="25"/>
       <c r="M800" s="9"/>
     </row>
-    <row r="801">
+    <row r="801" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G801" s="25"/>
       <c r="M801" s="9"/>
     </row>
-    <row r="802">
+    <row r="802" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G802" s="25"/>
       <c r="M802" s="9"/>
     </row>
-    <row r="803">
+    <row r="803" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G803" s="25"/>
       <c r="M803" s="9"/>
     </row>
-    <row r="804">
+    <row r="804" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G804" s="25"/>
       <c r="M804" s="9"/>
     </row>
-    <row r="805">
+    <row r="805" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G805" s="25"/>
       <c r="M805" s="9"/>
     </row>
-    <row r="806">
+    <row r="806" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G806" s="25"/>
       <c r="M806" s="9"/>
     </row>
-    <row r="807">
+    <row r="807" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G807" s="25"/>
       <c r="M807" s="9"/>
     </row>
-    <row r="808">
+    <row r="808" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G808" s="25"/>
       <c r="M808" s="9"/>
     </row>
-    <row r="809">
+    <row r="809" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G809" s="25"/>
       <c r="M809" s="9"/>
     </row>
-    <row r="810">
+    <row r="810" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G810" s="25"/>
       <c r="M810" s="9"/>
     </row>
-    <row r="811">
+    <row r="811" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G811" s="25"/>
       <c r="M811" s="9"/>
     </row>
-    <row r="812">
+    <row r="812" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G812" s="25"/>
       <c r="M812" s="9"/>
     </row>
-    <row r="813">
+    <row r="813" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G813" s="25"/>
       <c r="M813" s="9"/>
     </row>
-    <row r="814">
+    <row r="814" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G814" s="25"/>
       <c r="M814" s="9"/>
     </row>
-    <row r="815">
+    <row r="815" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G815" s="25"/>
       <c r="M815" s="9"/>
     </row>
-    <row r="816">
+    <row r="816" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G816" s="25"/>
       <c r="M816" s="9"/>
     </row>
-    <row r="817">
+    <row r="817" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G817" s="25"/>
       <c r="M817" s="9"/>
     </row>
-    <row r="818">
+    <row r="818" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G818" s="25"/>
       <c r="M818" s="9"/>
     </row>
-    <row r="819">
+    <row r="819" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G819" s="25"/>
       <c r="M819" s="9"/>
     </row>
-    <row r="820">
+    <row r="820" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G820" s="25"/>
       <c r="M820" s="9"/>
     </row>
-    <row r="821">
+    <row r="821" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G821" s="25"/>
       <c r="M821" s="9"/>
     </row>
-    <row r="822">
+    <row r="822" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G822" s="25"/>
       <c r="M822" s="9"/>
     </row>
-    <row r="823">
+    <row r="823" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G823" s="25"/>
       <c r="M823" s="9"/>
     </row>
-    <row r="824">
+    <row r="824" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G824" s="25"/>
       <c r="M824" s="9"/>
     </row>
-    <row r="825">
+    <row r="825" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G825" s="25"/>
       <c r="M825" s="9"/>
     </row>
-    <row r="826">
+    <row r="826" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G826" s="25"/>
       <c r="M826" s="9"/>
     </row>
-    <row r="827">
+    <row r="827" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G827" s="25"/>
       <c r="M827" s="9"/>
     </row>
-    <row r="828">
+    <row r="828" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G828" s="25"/>
       <c r="M828" s="9"/>
     </row>
-    <row r="829">
+    <row r="829" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G829" s="25"/>
       <c r="M829" s="9"/>
     </row>
-    <row r="830">
+    <row r="830" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G830" s="25"/>
       <c r="M830" s="9"/>
     </row>
-    <row r="831">
+    <row r="831" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G831" s="25"/>
       <c r="M831" s="9"/>
     </row>
-    <row r="832">
+    <row r="832" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G832" s="25"/>
       <c r="M832" s="9"/>
     </row>
-    <row r="833">
+    <row r="833" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G833" s="25"/>
       <c r="M833" s="9"/>
     </row>
-    <row r="834">
+    <row r="834" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G834" s="25"/>
       <c r="M834" s="9"/>
     </row>
-    <row r="835">
+    <row r="835" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G835" s="25"/>
       <c r="M835" s="9"/>
     </row>
-    <row r="836">
+    <row r="836" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G836" s="25"/>
       <c r="M836" s="9"/>
     </row>
-    <row r="837">
+    <row r="837" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G837" s="25"/>
       <c r="M837" s="9"/>
     </row>
-    <row r="838">
+    <row r="838" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G838" s="25"/>
       <c r="M838" s="9"/>
     </row>
-    <row r="839">
+    <row r="839" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G839" s="25"/>
       <c r="M839" s="9"/>
     </row>
-    <row r="840">
+    <row r="840" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G840" s="25"/>
       <c r="M840" s="9"/>
     </row>
-    <row r="841">
+    <row r="841" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G841" s="25"/>
       <c r="M841" s="9"/>
     </row>
-    <row r="842">
+    <row r="842" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G842" s="25"/>
       <c r="M842" s="9"/>
     </row>
-    <row r="843">
+    <row r="843" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G843" s="25"/>
       <c r="M843" s="9"/>
     </row>
-    <row r="844">
+    <row r="844" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G844" s="25"/>
       <c r="M844" s="9"/>
     </row>
-    <row r="845">
+    <row r="845" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G845" s="25"/>
       <c r="M845" s="9"/>
     </row>
-    <row r="846">
+    <row r="846" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G846" s="25"/>
       <c r="M846" s="9"/>
     </row>
-    <row r="847">
+    <row r="847" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G847" s="25"/>
       <c r="M847" s="9"/>
     </row>
-    <row r="848">
+    <row r="848" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G848" s="25"/>
       <c r="M848" s="9"/>
     </row>
-    <row r="849">
+    <row r="849" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G849" s="25"/>
       <c r="M849" s="9"/>
     </row>
-    <row r="850">
+    <row r="850" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G850" s="25"/>
       <c r="M850" s="9"/>
     </row>
-    <row r="851">
+    <row r="851" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G851" s="25"/>
       <c r="M851" s="9"/>
     </row>
-    <row r="852">
+    <row r="852" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G852" s="25"/>
       <c r="M852" s="9"/>
     </row>
-    <row r="853">
+    <row r="853" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G853" s="25"/>
       <c r="M853" s="9"/>
     </row>
-    <row r="854">
+    <row r="854" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G854" s="25"/>
       <c r="M854" s="9"/>
     </row>
-    <row r="855">
+    <row r="855" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G855" s="25"/>
       <c r="M855" s="9"/>
     </row>
-    <row r="856">
+    <row r="856" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G856" s="25"/>
       <c r="M856" s="9"/>
     </row>
-    <row r="857">
+    <row r="857" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G857" s="25"/>
       <c r="M857" s="9"/>
     </row>
-    <row r="858">
+    <row r="858" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G858" s="25"/>
       <c r="M858" s="9"/>
     </row>
-    <row r="859">
+    <row r="859" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G859" s="25"/>
       <c r="M859" s="9"/>
     </row>
-    <row r="860">
+    <row r="860" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G860" s="25"/>
       <c r="M860" s="9"/>
     </row>
-    <row r="861">
+    <row r="861" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G861" s="25"/>
       <c r="M861" s="9"/>
     </row>
-    <row r="862">
+    <row r="862" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G862" s="25"/>
       <c r="M862" s="9"/>
     </row>
-    <row r="863">
+    <row r="863" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G863" s="25"/>
       <c r="M863" s="9"/>
     </row>
-    <row r="864">
+    <row r="864" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G864" s="25"/>
       <c r="M864" s="9"/>
     </row>
-    <row r="865">
+    <row r="865" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G865" s="25"/>
       <c r="M865" s="9"/>
     </row>
-    <row r="866">
+    <row r="866" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G866" s="25"/>
       <c r="M866" s="9"/>
     </row>
-    <row r="867">
+    <row r="867" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G867" s="25"/>
       <c r="M867" s="9"/>
     </row>
-    <row r="868">
+    <row r="868" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G868" s="25"/>
       <c r="M868" s="9"/>
     </row>
-    <row r="869">
+    <row r="869" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G869" s="25"/>
       <c r="M869" s="9"/>
     </row>
-    <row r="870">
+    <row r="870" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G870" s="25"/>
       <c r="M870" s="9"/>
     </row>
-    <row r="871">
+    <row r="871" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G871" s="25"/>
       <c r="M871" s="9"/>
     </row>
-    <row r="872">
+    <row r="872" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G872" s="25"/>
       <c r="M872" s="9"/>
     </row>
-    <row r="873">
+    <row r="873" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G873" s="25"/>
       <c r="M873" s="9"/>
     </row>
-    <row r="874">
+    <row r="874" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G874" s="25"/>
       <c r="M874" s="9"/>
     </row>
-    <row r="875">
+    <row r="875" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G875" s="25"/>
       <c r="M875" s="9"/>
     </row>
-    <row r="876">
+    <row r="876" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G876" s="25"/>
       <c r="M876" s="9"/>
     </row>
-    <row r="877">
+    <row r="877" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G877" s="25"/>
       <c r="M877" s="9"/>
     </row>
-    <row r="878">
+    <row r="878" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G878" s="25"/>
       <c r="M878" s="9"/>
     </row>
-    <row r="879">
+    <row r="879" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G879" s="25"/>
       <c r="M879" s="9"/>
     </row>
-    <row r="880">
+    <row r="880" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G880" s="25"/>
       <c r="M880" s="9"/>
     </row>
-    <row r="881">
+    <row r="881" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G881" s="25"/>
       <c r="M881" s="9"/>
     </row>
-    <row r="882">
+    <row r="882" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G882" s="25"/>
       <c r="M882" s="9"/>
     </row>
-    <row r="883">
+    <row r="883" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G883" s="25"/>
       <c r="M883" s="9"/>
     </row>
-    <row r="884">
+    <row r="884" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G884" s="25"/>
       <c r="M884" s="9"/>
     </row>
-    <row r="885">
+    <row r="885" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G885" s="25"/>
       <c r="M885" s="9"/>
     </row>
-    <row r="886">
+    <row r="886" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G886" s="25"/>
       <c r="M886" s="9"/>
     </row>
-    <row r="887">
+    <row r="887" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G887" s="25"/>
       <c r="M887" s="9"/>
     </row>
-    <row r="888">
+    <row r="888" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G888" s="25"/>
       <c r="M888" s="9"/>
     </row>
-    <row r="889">
+    <row r="889" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G889" s="25"/>
       <c r="M889" s="9"/>
     </row>
-    <row r="890">
+    <row r="890" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G890" s="25"/>
       <c r="M890" s="9"/>
     </row>
-    <row r="891">
+    <row r="891" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G891" s="25"/>
       <c r="M891" s="9"/>
     </row>
-    <row r="892">
+    <row r="892" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G892" s="25"/>
       <c r="M892" s="9"/>
     </row>
-    <row r="893">
+    <row r="893" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G893" s="25"/>
       <c r="M893" s="9"/>
     </row>
-    <row r="894">
+    <row r="894" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G894" s="25"/>
       <c r="M894" s="9"/>
     </row>
-    <row r="895">
+    <row r="895" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G895" s="25"/>
       <c r="M895" s="9"/>
     </row>
-    <row r="896">
+    <row r="896" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G896" s="25"/>
       <c r="M896" s="9"/>
     </row>
-    <row r="897">
+    <row r="897" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G897" s="25"/>
       <c r="M897" s="9"/>
     </row>
-    <row r="898">
+    <row r="898" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G898" s="25"/>
       <c r="M898" s="9"/>
     </row>
-    <row r="899">
+    <row r="899" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G899" s="25"/>
       <c r="M899" s="9"/>
     </row>
-    <row r="900">
+    <row r="900" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G900" s="25"/>
       <c r="M900" s="9"/>
     </row>
-    <row r="901">
+    <row r="901" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G901" s="25"/>
       <c r="M901" s="9"/>
     </row>
-    <row r="902">
+    <row r="902" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G902" s="25"/>
       <c r="M902" s="9"/>
     </row>
-    <row r="903">
+    <row r="903" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G903" s="25"/>
       <c r="M903" s="9"/>
     </row>
-    <row r="904">
+    <row r="904" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G904" s="25"/>
       <c r="M904" s="9"/>
     </row>
-    <row r="905">
+    <row r="905" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G905" s="25"/>
       <c r="M905" s="9"/>
     </row>
-    <row r="906">
+    <row r="906" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G906" s="25"/>
       <c r="M906" s="9"/>
     </row>
-    <row r="907">
+    <row r="907" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G907" s="25"/>
       <c r="M907" s="9"/>
     </row>
-    <row r="908">
+    <row r="908" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G908" s="25"/>
       <c r="M908" s="9"/>
     </row>
-    <row r="909">
+    <row r="909" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G909" s="25"/>
       <c r="M909" s="9"/>
     </row>
-    <row r="910">
+    <row r="910" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G910" s="25"/>
       <c r="M910" s="9"/>
     </row>
-    <row r="911">
+    <row r="911" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G911" s="25"/>
       <c r="M911" s="9"/>
     </row>
-    <row r="912">
+    <row r="912" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G912" s="25"/>
       <c r="M912" s="9"/>
     </row>
-    <row r="913">
+    <row r="913" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G913" s="25"/>
       <c r="M913" s="9"/>
     </row>
-    <row r="914">
+    <row r="914" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G914" s="25"/>
       <c r="M914" s="9"/>
     </row>
-    <row r="915">
+    <row r="915" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G915" s="25"/>
       <c r="M915" s="9"/>
     </row>
-    <row r="916">
+    <row r="916" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G916" s="25"/>
       <c r="M916" s="9"/>
     </row>
-    <row r="917">
+    <row r="917" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G917" s="25"/>
       <c r="M917" s="9"/>
     </row>
-    <row r="918">
+    <row r="918" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G918" s="25"/>
       <c r="M918" s="9"/>
     </row>
-    <row r="919">
+    <row r="919" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G919" s="25"/>
       <c r="M919" s="9"/>
     </row>
-    <row r="920">
+    <row r="920" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G920" s="25"/>
       <c r="M920" s="9"/>
     </row>
-    <row r="921">
+    <row r="921" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G921" s="25"/>
       <c r="M921" s="9"/>
     </row>
-    <row r="922">
+    <row r="922" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G922" s="25"/>
       <c r="M922" s="9"/>
     </row>
-    <row r="923">
+    <row r="923" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G923" s="25"/>
       <c r="M923" s="9"/>
     </row>
-    <row r="924">
+    <row r="924" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G924" s="25"/>
       <c r="M924" s="9"/>
     </row>
-    <row r="925">
+    <row r="925" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G925" s="25"/>
       <c r="M925" s="9"/>
     </row>
-    <row r="926">
+    <row r="926" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G926" s="25"/>
       <c r="M926" s="9"/>
     </row>
-    <row r="927">
+    <row r="927" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G927" s="25"/>
       <c r="M927" s="9"/>
     </row>
-    <row r="928">
+    <row r="928" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G928" s="25"/>
       <c r="M928" s="9"/>
     </row>
-    <row r="929">
+    <row r="929" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G929" s="25"/>
       <c r="M929" s="9"/>
     </row>
-    <row r="930">
+    <row r="930" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G930" s="25"/>
       <c r="M930" s="9"/>
     </row>
-    <row r="931">
+    <row r="931" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G931" s="25"/>
       <c r="M931" s="9"/>
     </row>
-    <row r="932">
+    <row r="932" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G932" s="25"/>
       <c r="M932" s="9"/>
     </row>
-    <row r="933">
+    <row r="933" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G933" s="25"/>
       <c r="M933" s="9"/>
     </row>
-    <row r="934">
+    <row r="934" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G934" s="25"/>
       <c r="M934" s="9"/>
     </row>
-    <row r="935">
+    <row r="935" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G935" s="25"/>
       <c r="M935" s="9"/>
     </row>
-    <row r="936">
+    <row r="936" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G936" s="25"/>
       <c r="M936" s="9"/>
     </row>
-    <row r="937">
+    <row r="937" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G937" s="25"/>
       <c r="M937" s="9"/>
     </row>
-    <row r="938">
+    <row r="938" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G938" s="25"/>
       <c r="M938" s="9"/>
     </row>
-    <row r="939">
+    <row r="939" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G939" s="25"/>
       <c r="M939" s="9"/>
     </row>
-    <row r="940">
+    <row r="940" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G940" s="25"/>
       <c r="M940" s="9"/>
     </row>
-    <row r="941">
+    <row r="941" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G941" s="25"/>
       <c r="M941" s="9"/>
     </row>
-    <row r="942">
+    <row r="942" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G942" s="25"/>
       <c r="M942" s="9"/>
     </row>
-    <row r="943">
+    <row r="943" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G943" s="25"/>
       <c r="M943" s="9"/>
     </row>
-    <row r="944">
+    <row r="944" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G944" s="25"/>
       <c r="M944" s="9"/>
     </row>
-    <row r="945">
+    <row r="945" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G945" s="25"/>
       <c r="M945" s="9"/>
     </row>
-    <row r="946">
+    <row r="946" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G946" s="25"/>
       <c r="M946" s="9"/>
     </row>
-    <row r="947">
+    <row r="947" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G947" s="25"/>
       <c r="M947" s="9"/>
     </row>
-    <row r="948">
+    <row r="948" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G948" s="25"/>
       <c r="M948" s="9"/>
     </row>
-    <row r="949">
+    <row r="949" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G949" s="25"/>
       <c r="M949" s="9"/>
     </row>
-    <row r="950">
+    <row r="950" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G950" s="25"/>
       <c r="M950" s="9"/>
     </row>
-    <row r="951">
+    <row r="951" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G951" s="25"/>
       <c r="M951" s="9"/>
     </row>
-    <row r="952">
+    <row r="952" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G952" s="25"/>
       <c r="M952" s="9"/>
     </row>
-    <row r="953">
+    <row r="953" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G953" s="25"/>
       <c r="M953" s="9"/>
     </row>
-    <row r="954">
+    <row r="954" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G954" s="25"/>
       <c r="M954" s="9"/>
     </row>
-    <row r="955">
+    <row r="955" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G955" s="25"/>
       <c r="M955" s="9"/>
     </row>
-    <row r="956">
+    <row r="956" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G956" s="25"/>
       <c r="M956" s="9"/>
     </row>
-    <row r="957">
+    <row r="957" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G957" s="25"/>
       <c r="M957" s="9"/>
     </row>
-    <row r="958">
+    <row r="958" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G958" s="25"/>
       <c r="M958" s="9"/>
     </row>
-    <row r="959">
+    <row r="959" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G959" s="25"/>
       <c r="M959" s="9"/>
     </row>
-    <row r="960">
+    <row r="960" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G960" s="25"/>
       <c r="M960" s="9"/>
     </row>
-    <row r="961">
+    <row r="961" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G961" s="25"/>
       <c r="M961" s="9"/>
     </row>
-    <row r="962">
+    <row r="962" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G962" s="25"/>
       <c r="M962" s="9"/>
     </row>
-    <row r="963">
+    <row r="963" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G963" s="25"/>
       <c r="M963" s="9"/>
     </row>
-    <row r="964">
+    <row r="964" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G964" s="25"/>
       <c r="M964" s="9"/>
     </row>
-    <row r="965">
+    <row r="965" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G965" s="25"/>
       <c r="M965" s="9"/>
     </row>
-    <row r="966">
+    <row r="966" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G966" s="25"/>
       <c r="M966" s="9"/>
     </row>
-    <row r="967">
+    <row r="967" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G967" s="25"/>
       <c r="M967" s="9"/>
     </row>
-    <row r="968">
+    <row r="968" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G968" s="25"/>
       <c r="M968" s="9"/>
     </row>
-    <row r="969">
+    <row r="969" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G969" s="25"/>
       <c r="M969" s="9"/>
     </row>
-    <row r="970">
+    <row r="970" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G970" s="25"/>
       <c r="M970" s="9"/>
     </row>
-    <row r="971">
+    <row r="971" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G971" s="25"/>
       <c r="M971" s="9"/>
     </row>
-    <row r="972">
+    <row r="972" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G972" s="25"/>
       <c r="M972" s="9"/>
     </row>
-    <row r="973">
+    <row r="973" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G973" s="25"/>
       <c r="M973" s="9"/>
     </row>
-    <row r="974">
+    <row r="974" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G974" s="25"/>
       <c r="M974" s="9"/>
     </row>
-    <row r="975">
+    <row r="975" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G975" s="25"/>
       <c r="M975" s="9"/>
     </row>
-    <row r="976">
+    <row r="976" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G976" s="25"/>
       <c r="M976" s="9"/>
     </row>
-    <row r="977">
+    <row r="977" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G977" s="25"/>
       <c r="M977" s="9"/>
     </row>
-    <row r="978">
+    <row r="978" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G978" s="25"/>
       <c r="M978" s="9"/>
     </row>
-    <row r="979">
+    <row r="979" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G979" s="25"/>
       <c r="M979" s="9"/>
     </row>
-    <row r="980">
+    <row r="980" spans="7:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G980" s="25"/>
       <c r="M980" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C7"/>
-    <hyperlink r:id="rId2" ref="C8"/>
-    <hyperlink r:id="rId3" ref="C11"/>
-    <hyperlink r:id="rId4" ref="C12"/>
-    <hyperlink r:id="rId5" ref="C13"/>
-    <hyperlink r:id="rId6" ref="C14"/>
-    <hyperlink r:id="rId7" ref="C15"/>
-    <hyperlink r:id="rId8" ref="C16"/>
-    <hyperlink r:id="rId9" ref="C20"/>
-    <hyperlink r:id="rId10" ref="C21"/>
-    <hyperlink r:id="rId11" ref="C22"/>
-    <hyperlink r:id="rId12" ref="C23"/>
-    <hyperlink r:id="rId13" ref="C27"/>
-    <hyperlink r:id="rId14" ref="C31"/>
-    <hyperlink r:id="rId15" ref="C32"/>
-    <hyperlink r:id="rId16" ref="C33"/>
-    <hyperlink r:id="rId17" ref="C34"/>
-    <hyperlink r:id="rId18" ref="C37"/>
-    <hyperlink r:id="rId19" ref="C40"/>
-    <hyperlink r:id="rId20" ref="C41"/>
-    <hyperlink r:id="rId21" ref="C45"/>
-    <hyperlink r:id="rId22" ref="C46"/>
-    <hyperlink r:id="rId23" ref="C47"/>
-    <hyperlink r:id="rId24" ref="C50"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C32" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C50" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>